--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_30_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_30_6.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9456672249087495</v>
+        <v>0.9777438305339969</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7550065358062217</v>
+        <v>0.7791748889703279</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9063451321169813</v>
+        <v>0.8146954437688936</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6205776666347314</v>
+        <v>0.9968942809826333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8549146670833139</v>
+        <v>0.9381076128640011</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3633235172146169</v>
+        <v>0.1488271076994</v>
       </c>
       <c r="H2" t="n">
-        <v>1.63827242315497</v>
+        <v>1.476658534261558</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5788167075621791</v>
+        <v>0.5374288647279959</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6002499718593495</v>
+        <v>0.009339200087260757</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5895333120951562</v>
+        <v>0.2733839880516976</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9216913067363487</v>
+        <v>0.6051278572966176</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6027632347900931</v>
+        <v>0.3857811655581438</v>
       </c>
       <c r="N2" t="n">
-        <v>1.0521594640876</v>
+        <v>1.021365922687363</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6284241135870162</v>
+        <v>0.4022046684530585</v>
       </c>
       <c r="P2" t="n">
-        <v>100.024923219265</v>
+        <v>101.8099399955517</v>
       </c>
       <c r="Q2" t="n">
-        <v>159.7498386378069</v>
+        <v>161.5348554140936</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9507024599022117</v>
+        <v>0.9795363562664706</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7539336708200088</v>
+        <v>0.7791033789333851</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9094380697392808</v>
+        <v>0.8241875890525894</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6101073728133601</v>
+        <v>0.9885994206197836</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8552285960910433</v>
+        <v>0.9384004109691394</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3296528776282107</v>
+        <v>0.1368404798725263</v>
       </c>
       <c r="H3" t="n">
-        <v>1.645446676257864</v>
+        <v>1.477136722207868</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5597013747268295</v>
+        <v>0.5098993049189666</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6168140826640417</v>
+        <v>0.03428265446653893</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5882577068773924</v>
+        <v>0.2720906736816964</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9907634793023651</v>
+        <v>0.6335196101775459</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5741540539160294</v>
+        <v>0.3699195586509672</v>
       </c>
       <c r="N3" t="n">
-        <v>1.047325638493877</v>
+        <v>1.019645097984188</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5985969806539748</v>
+        <v>0.3856678001017906</v>
       </c>
       <c r="P3" t="n">
-        <v>100.2194301282341</v>
+        <v>101.9778788241283</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.9443455467759</v>
+        <v>161.7027942426701</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9547017468896256</v>
+        <v>0.9806361634134247</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7525336370766226</v>
+        <v>0.7785859758325324</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9121031310466374</v>
+        <v>0.8323859890675187</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5990170636546215</v>
+        <v>0.9764654679793935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8550964635547278</v>
+        <v>0.9369614977676337</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3029096271283502</v>
+        <v>0.129486064416698</v>
       </c>
       <c r="H4" t="n">
-        <v>1.654808708346451</v>
+        <v>1.480596599125692</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5432304528597215</v>
+        <v>0.4861219251166354</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6343590640081836</v>
+        <v>0.07077063387622624</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5887946083698012</v>
+        <v>0.2784464768376396</v>
       </c>
       <c r="L4" t="n">
-        <v>1.04806889126242</v>
+        <v>0.6599804695251034</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5503722623173793</v>
+        <v>0.3598417213396717</v>
       </c>
       <c r="N4" t="n">
-        <v>1.043486322985959</v>
+        <v>1.018589283123112</v>
       </c>
       <c r="O4" t="n">
-        <v>0.573802748951875</v>
+        <v>0.3751609283921541</v>
       </c>
       <c r="P4" t="n">
-        <v>100.3886415565274</v>
+        <v>102.0883640286297</v>
       </c>
       <c r="Q4" t="n">
-        <v>160.1135569750692</v>
+        <v>161.8132794471715</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9578746585446593</v>
+        <v>0.9811953862949468</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7509235508035715</v>
+        <v>0.7777373906274703</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9144052292995838</v>
+        <v>0.8394125142061892</v>
       </c>
       <c r="E5" t="n">
-        <v>0.587784122267313</v>
+        <v>0.9616280849883734</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8546604762258916</v>
+        <v>0.9342178270619093</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2816923522812255</v>
+        <v>0.1257465384329749</v>
       </c>
       <c r="H5" t="n">
-        <v>1.665575362668109</v>
+        <v>1.486271092299318</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5290027574779992</v>
+        <v>0.465743271158722</v>
       </c>
       <c r="J5" t="n">
-        <v>0.652129690981632</v>
+        <v>0.1153880921039665</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5905661799603488</v>
+        <v>0.2905655059160206</v>
       </c>
       <c r="L5" t="n">
-        <v>1.095966487346038</v>
+        <v>0.684435190539297</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5307469757626749</v>
+        <v>0.3546075837217457</v>
       </c>
       <c r="N5" t="n">
-        <v>1.040440327797127</v>
+        <v>1.018052429156851</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5533419733185931</v>
+        <v>0.3697039626996745</v>
       </c>
       <c r="P5" t="n">
-        <v>100.5338795058396</v>
+        <v>102.1469739955063</v>
       </c>
       <c r="Q5" t="n">
-        <v>160.2587949243814</v>
+        <v>161.8718894140481</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9603878476617334</v>
+        <v>0.9813395384707608</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7491918977368045</v>
+        <v>0.7766518443324723</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9163996275006038</v>
+        <v>0.8453917313960001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5767184416485297</v>
+        <v>0.9450176416534511</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8540231151936059</v>
+        <v>0.9305266587867975</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2648866450831793</v>
+        <v>0.124782592169547</v>
       </c>
       <c r="H6" t="n">
-        <v>1.677154934699109</v>
+        <v>1.493530145372451</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5166767457460273</v>
+        <v>0.4484020682674424</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6696357097262768</v>
+        <v>0.1653373157702074</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5931560045333095</v>
+        <v>0.3068697131103983</v>
       </c>
       <c r="L6" t="n">
-        <v>1.136246280873649</v>
+        <v>0.7068976508050835</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5146713952447516</v>
+        <v>0.353245795685592</v>
       </c>
       <c r="N6" t="n">
-        <v>1.038027666244736</v>
+        <v>1.01791404306807</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5365820220569826</v>
+        <v>0.3682842005275319</v>
       </c>
       <c r="P6" t="n">
-        <v>100.656906597824</v>
+        <v>102.1623646371936</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.3818220163659</v>
+        <v>161.8872800557354</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9623742772007405</v>
+        <v>0.9811712691430883</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7474049744991682</v>
+        <v>0.7754055241737786</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9181317192472702</v>
+        <v>0.8504485009903561</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5660253139644964</v>
+        <v>0.9273761165319943</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8532586985979187</v>
+        <v>0.9261817965914909</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2516033816091715</v>
+        <v>0.1259078099385025</v>
       </c>
       <c r="H7" t="n">
-        <v>1.689104098617208</v>
+        <v>1.501864294012412</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5059718708723224</v>
+        <v>0.4337361906573075</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6865523459572028</v>
+        <v>0.2183871029635833</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5962621010519339</v>
+        <v>0.326061342476348</v>
       </c>
       <c r="L7" t="n">
-        <v>1.170304995743844</v>
+        <v>0.7274452144205868</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5016008189877399</v>
+        <v>0.3548349051862041</v>
       </c>
       <c r="N7" t="n">
-        <v>1.036120693887289</v>
+        <v>1.018075581622635</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5229550043088871</v>
+        <v>0.3699409617094951</v>
       </c>
       <c r="P7" t="n">
-        <v>100.7598026276563</v>
+        <v>102.1444106139689</v>
       </c>
       <c r="Q7" t="n">
-        <v>160.4847180461981</v>
+        <v>161.8693260325107</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9639401104558631</v>
+        <v>0.980773365512008</v>
       </c>
       <c r="C8" t="n">
-        <v>0.745611994215017</v>
+        <v>0.774059267887543</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9196397819331719</v>
+        <v>0.8547007396338181</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5558301063042435</v>
+        <v>0.9092847121271279</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8524208404661144</v>
+        <v>0.9214195439958719</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2411326474221669</v>
+        <v>0.1285685933517136</v>
       </c>
       <c r="H8" t="n">
-        <v>1.701093766033242</v>
+        <v>1.51086671599741</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4966515664569527</v>
+        <v>0.4214036510091286</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7026812676706109</v>
+        <v>0.2727897210535667</v>
       </c>
       <c r="K8" t="n">
-        <v>0.599666616653742</v>
+        <v>0.3470966210775612</v>
       </c>
       <c r="L8" t="n">
-        <v>1.199235533153234</v>
+        <v>0.7461828810001623</v>
       </c>
       <c r="M8" t="n">
-        <v>0.491052591299717</v>
+        <v>0.3585646292535192</v>
       </c>
       <c r="N8" t="n">
-        <v>1.034617493962371</v>
+        <v>1.018457569108472</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5119577167303435</v>
+        <v>0.3738294678519489</v>
       </c>
       <c r="P8" t="n">
-        <v>100.844816185334</v>
+        <v>102.1025854333303</v>
       </c>
       <c r="Q8" t="n">
-        <v>160.5697316038758</v>
+        <v>161.8275008518722</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9651704375862449</v>
+        <v>0.9802122337373975</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7438489084562031</v>
+        <v>0.7726609338635932</v>
       </c>
       <c r="D9" t="n">
-        <v>0.92095567379766</v>
+        <v>0.8582609925631073</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5462106998392421</v>
+        <v>0.8911869115636769</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8515490202802094</v>
+        <v>0.9164279077188456</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2329054442361689</v>
+        <v>0.1323208841123082</v>
       </c>
       <c r="H9" t="n">
-        <v>1.712883528620694</v>
+        <v>1.520217382054298</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4885189385036228</v>
+        <v>0.4110780404097534</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7178992660649282</v>
+        <v>0.32721157301644</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6032091321611033</v>
+        <v>0.3691451070944019</v>
       </c>
       <c r="L9" t="n">
-        <v>1.223899222651337</v>
+        <v>0.7632282751868179</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4826027810074958</v>
+        <v>0.3637593766658231</v>
       </c>
       <c r="N9" t="n">
-        <v>1.033436379917205</v>
+        <v>1.018996255612098</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5031481805204637</v>
+        <v>0.3792453664162043</v>
       </c>
       <c r="P9" t="n">
-        <v>100.9142454530241</v>
+        <v>102.0450507322129</v>
       </c>
       <c r="Q9" t="n">
-        <v>160.6391608715659</v>
+        <v>161.7699661507547</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9661333293080185</v>
+        <v>0.9795403119633624</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7421411986291822</v>
+        <v>0.7712476269968037</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9221065859439592</v>
+        <v>0.8612292404893941</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5372043062855905</v>
+        <v>0.8734140948126681</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8506709864602668</v>
+        <v>0.9113527037327402</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2264665828589597</v>
+        <v>0.1368140281091967</v>
       </c>
       <c r="H10" t="n">
-        <v>1.724302992097264</v>
+        <v>1.529668171580199</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4814059373935649</v>
+        <v>0.4024693901655251</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7321474718286336</v>
+        <v>0.3806561669490321</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6067768958736456</v>
+        <v>0.3915627188573573</v>
       </c>
       <c r="L10" t="n">
-        <v>1.245002828306491</v>
+        <v>0.7787106964356363</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4758850521491085</v>
+        <v>0.3698838035237508</v>
       </c>
       <c r="N10" t="n">
-        <v>1.032512003864302</v>
+        <v>1.019641300515172</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4961444640369592</v>
+        <v>0.3856305228047853</v>
       </c>
       <c r="P10" t="n">
-        <v>100.9703157639805</v>
+        <v>101.9782654687863</v>
       </c>
       <c r="Q10" t="n">
-        <v>160.6952311825223</v>
+        <v>161.7031808873282</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9668833938935114</v>
+        <v>0.9787986289287478</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7405064473023182</v>
+        <v>0.7698474464237165</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9231151492717382</v>
+        <v>0.8636951903590054</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5288256208912965</v>
+        <v>0.8562070387651644</v>
       </c>
       <c r="F11" t="n">
-        <v>0.849806962041825</v>
+        <v>0.9063050895672017</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2214508975220388</v>
+        <v>0.1417736659768006</v>
       </c>
       <c r="H11" t="n">
-        <v>1.735234581747342</v>
+        <v>1.539031185519673</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4751726970084291</v>
+        <v>0.3953175280318788</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7454026369306352</v>
+        <v>0.4323994632490963</v>
       </c>
       <c r="K11" t="n">
-        <v>0.610287734404978</v>
+        <v>0.4138584640140111</v>
       </c>
       <c r="L11" t="n">
-        <v>1.263118590065784</v>
+        <v>0.7927515443362253</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4705856962573754</v>
+        <v>0.3765284397981122</v>
       </c>
       <c r="N11" t="n">
-        <v>1.031791941862229</v>
+        <v>1.020353316228402</v>
       </c>
       <c r="O11" t="n">
-        <v>0.490619503593736</v>
+        <v>0.3925580350016395</v>
       </c>
       <c r="P11" t="n">
-        <v>101.0151087913761</v>
+        <v>101.9070467891304</v>
       </c>
       <c r="Q11" t="n">
-        <v>160.7400242099179</v>
+        <v>161.6319622076722</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.967464292377387</v>
+        <v>0.9780189933093199</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7389560776874424</v>
+        <v>0.768481485024146</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9240008308522065</v>
+        <v>0.8657379410500239</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5210699575795184</v>
+        <v>0.8397333168208723</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8489707987927224</v>
+        <v>0.9013681891196637</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2175664266855715</v>
+        <v>0.1469870929538074</v>
       </c>
       <c r="H12" t="n">
-        <v>1.745601910500811</v>
+        <v>1.548165375688274</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4696989046904954</v>
+        <v>0.3893930477755642</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7576721747919286</v>
+        <v>0.4819375523548173</v>
       </c>
       <c r="K12" t="n">
-        <v>0.613685363095528</v>
+        <v>0.4356651771723913</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27871134810253</v>
+        <v>0.8054681279128222</v>
       </c>
       <c r="M12" t="n">
-        <v>0.466440164099932</v>
+        <v>0.3833889577880502</v>
       </c>
       <c r="N12" t="n">
-        <v>1.031234279317709</v>
+        <v>1.021101766423053</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4862974875499156</v>
+        <v>0.3997106194456393</v>
       </c>
       <c r="P12" t="n">
-        <v>101.0505021300659</v>
+        <v>101.8348209981873</v>
       </c>
       <c r="Q12" t="n">
-        <v>160.7754175486077</v>
+        <v>161.5597364167291</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9679109856578937</v>
+        <v>0.9772255893720214</v>
       </c>
       <c r="C13" t="n">
-        <v>0.737496743399404</v>
+        <v>0.7671648073281481</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9247800161857596</v>
+        <v>0.8674255306203662</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5139192968981481</v>
+        <v>0.8241031428165321</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8481712855861117</v>
+        <v>0.8966017446916773</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2145793866619894</v>
+        <v>0.1522925887358109</v>
       </c>
       <c r="H13" t="n">
-        <v>1.755360485604541</v>
+        <v>1.556970005504155</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4648832928644106</v>
+        <v>0.3844986222667561</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7689845923681397</v>
+        <v>0.528939010506368</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6169340696276191</v>
+        <v>0.4567189714570809</v>
       </c>
       <c r="L13" t="n">
-        <v>1.292175344711166</v>
+        <v>0.8169776617697185</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4632271437016504</v>
+        <v>0.3902468305262849</v>
       </c>
       <c r="N13" t="n">
-        <v>1.030805453768422</v>
+        <v>1.021863434202859</v>
       </c>
       <c r="O13" t="n">
-        <v>0.48294768222141</v>
+        <v>0.4068604460240943</v>
       </c>
       <c r="P13" t="n">
-        <v>101.0781510161925</v>
+        <v>101.7639033650763</v>
       </c>
       <c r="Q13" t="n">
-        <v>160.8030664347343</v>
+        <v>161.4888187836181</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9682515751287559</v>
+        <v>0.976436615824654</v>
       </c>
       <c r="C14" t="n">
-        <v>0.736131492336488</v>
+        <v>0.7659079430435012</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9254669884669925</v>
+        <v>0.8688159473949801</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5073490726018263</v>
+        <v>0.809382461950054</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8474147130214925</v>
+        <v>0.8920474285238221</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2123018633020638</v>
+        <v>0.1575684584799458</v>
       </c>
       <c r="H14" t="n">
-        <v>1.764489925748663</v>
+        <v>1.565374662762917</v>
       </c>
       <c r="I14" t="n">
-        <v>0.460637586869647</v>
+        <v>0.3804660710770942</v>
       </c>
       <c r="J14" t="n">
-        <v>0.779378753708084</v>
+        <v>0.573205534059847</v>
       </c>
       <c r="K14" t="n">
-        <v>0.620008293058022</v>
+        <v>0.4768357770034677</v>
       </c>
       <c r="L14" t="n">
-        <v>1.303830541903688</v>
+        <v>0.8273857368135888</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4607622633224902</v>
+        <v>0.3969489368671313</v>
       </c>
       <c r="N14" t="n">
-        <v>1.030478487876394</v>
+        <v>1.022620848808332</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4803778667815032</v>
+        <v>0.4138478749071433</v>
       </c>
       <c r="P14" t="n">
-        <v>101.0994922671414</v>
+        <v>101.6957905162738</v>
       </c>
       <c r="Q14" t="n">
-        <v>160.8244076856832</v>
+        <v>161.4207059348157</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9685083369745164</v>
+        <v>0.9756654391578888</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7348609220982257</v>
+        <v>0.7647177462978635</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9260732277653871</v>
+        <v>0.8699595377273717</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5013289550581594</v>
+        <v>0.7956032054151211</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8467038258088277</v>
+        <v>0.8877324795560183</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2105848956571834</v>
+        <v>0.1627253204015471</v>
       </c>
       <c r="H15" t="n">
-        <v>1.772986234782361</v>
+        <v>1.573333513881348</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4568908362455371</v>
+        <v>0.3771493773780759</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7889026405972018</v>
+        <v>0.6146411028005593</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6228968806539095</v>
+        <v>0.4958952770751923</v>
       </c>
       <c r="L15" t="n">
-        <v>1.313948831563871</v>
+        <v>0.8367907873208228</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4588952992319527</v>
+        <v>0.4033922661647681</v>
       </c>
       <c r="N15" t="n">
-        <v>1.030231996504464</v>
+        <v>1.023361178408427</v>
       </c>
       <c r="O15" t="n">
-        <v>0.478431422164483</v>
+        <v>0.4205655100725108</v>
       </c>
       <c r="P15" t="n">
-        <v>101.115732804761</v>
+        <v>101.6313833011001</v>
       </c>
       <c r="Q15" t="n">
-        <v>160.8406482233028</v>
+        <v>161.356298719642</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9686992459899406</v>
+        <v>0.9749215253847952</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7336835270697117</v>
+        <v>0.763598087733796</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9266093252740837</v>
+        <v>0.8708978243854724</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4958260159476848</v>
+        <v>0.782770553291714</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8460403174134749</v>
+        <v>0.8836724171000977</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2093082861919869</v>
+        <v>0.1676998752276322</v>
       </c>
       <c r="H16" t="n">
-        <v>1.78085948075944</v>
+        <v>1.580820675854821</v>
       </c>
       <c r="I16" t="n">
-        <v>0.453577584068367</v>
+        <v>0.3744281149131443</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7976083459701805</v>
+        <v>0.6532301397226207</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6255929512631968</v>
+        <v>0.5138289215394072</v>
       </c>
       <c r="L16" t="n">
-        <v>1.322747032113438</v>
+        <v>0.8452871194042629</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4575022253410216</v>
+        <v>0.4095117522460524</v>
       </c>
       <c r="N16" t="n">
-        <v>1.030048723849657</v>
+        <v>1.024075335630597</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4769790422339545</v>
+        <v>0.4269455153453579</v>
       </c>
       <c r="P16" t="n">
-        <v>101.12789412058</v>
+        <v>101.571158708349</v>
       </c>
       <c r="Q16" t="n">
-        <v>160.8528095391219</v>
+        <v>161.2960741268909</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9688385583293735</v>
+        <v>0.9742114731282133</v>
       </c>
       <c r="C17" t="n">
-        <v>0.732596436968642</v>
+        <v>0.7625506314981692</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9270841148233444</v>
+        <v>0.8716670389615362</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4908058106514579</v>
+        <v>0.7708720195520695</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8454241655437982</v>
+        <v>0.8798747163660878</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2083767039367248</v>
+        <v>0.1724479979368849</v>
       </c>
       <c r="H17" t="n">
-        <v>1.788128857270882</v>
+        <v>1.587825020525551</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4506432344728789</v>
+        <v>0.3721972031387427</v>
       </c>
       <c r="J17" t="n">
-        <v>0.805550361562835</v>
+        <v>0.6890101915296845</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6280965954647282</v>
+        <v>0.5306036917516</v>
       </c>
       <c r="L17" t="n">
-        <v>1.330425050879196</v>
+        <v>0.8529537686533355</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4564829722308652</v>
+        <v>0.4152685852997851</v>
       </c>
       <c r="N17" t="n">
-        <v>1.029914984003802</v>
+        <v>1.024756985796915</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4759163974087539</v>
+        <v>0.4329474287004753</v>
       </c>
       <c r="P17" t="n">
-        <v>101.1368155213676</v>
+        <v>101.5153190983895</v>
       </c>
       <c r="Q17" t="n">
-        <v>160.8617309399094</v>
+        <v>161.2402345169313</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9689376992455349</v>
+        <v>0.9735393485332307</v>
       </c>
       <c r="C18" t="n">
-        <v>0.731595925698473</v>
+        <v>0.761575418093728</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9275052312524676</v>
+        <v>0.8722958950167724</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4862351442389782</v>
+        <v>0.7598795244381111</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8448546531487597</v>
+        <v>0.8763393303365558</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2077137481738517</v>
+        <v>0.1769424981983831</v>
       </c>
       <c r="H18" t="n">
-        <v>1.794819280741433</v>
+        <v>1.594346277051494</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4480406017372276</v>
+        <v>0.3703733656534873</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8127812020912133</v>
+        <v>0.722065696793821</v>
       </c>
       <c r="K18" t="n">
-        <v>0.630410726891914</v>
+        <v>0.5462197953918098</v>
       </c>
       <c r="L18" t="n">
-        <v>1.337136962223403</v>
+        <v>0.8598726152263474</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4557562376686156</v>
+        <v>0.4206453354054733</v>
       </c>
       <c r="N18" t="n">
-        <v>1.029819808724286</v>
+        <v>1.025402225408099</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4751587242516415</v>
+        <v>0.4385530781895697</v>
       </c>
       <c r="P18" t="n">
-        <v>101.1431887156623</v>
+        <v>101.4638609362507</v>
       </c>
       <c r="Q18" t="n">
-        <v>160.8681041342041</v>
+        <v>161.1887763547925</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9690055467787453</v>
+        <v>0.9729075962277366</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7306774974982704</v>
+        <v>0.7606711638531598</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9278789232153664</v>
+        <v>0.8728095754362776</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4820768362747685</v>
+        <v>0.7497566118649539</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8443293164335067</v>
+        <v>0.8730622162061518</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2072600514068643</v>
+        <v>0.1811670287741742</v>
       </c>
       <c r="H19" t="n">
-        <v>1.800960814345161</v>
+        <v>1.600393029321881</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4457310672037141</v>
+        <v>0.3688835658865384</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8193596873805767</v>
+        <v>0.7525062825190303</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6325453568195728</v>
+        <v>0.5606950898783803</v>
       </c>
       <c r="L19" t="n">
-        <v>1.343015412983159</v>
+        <v>0.8661151095515696</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4552582249744252</v>
+        <v>0.4256372032308433</v>
       </c>
       <c r="N19" t="n">
-        <v>1.029754675092404</v>
+        <v>1.026008707621373</v>
       </c>
       <c r="O19" t="n">
-        <v>0.474639510126031</v>
+        <v>0.4437574601628567</v>
       </c>
       <c r="P19" t="n">
-        <v>101.1475619743906</v>
+        <v>101.416671724675</v>
       </c>
       <c r="Q19" t="n">
-        <v>160.8724773929324</v>
+        <v>161.1415871432168</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9690494662843188</v>
+        <v>0.9723171421175082</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7298363728628714</v>
+        <v>0.7598355683074876</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9282112639581094</v>
+        <v>0.8732283712294456</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4783010754046507</v>
+        <v>0.7404594166880752</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8438471248644266</v>
+        <v>0.8700349846182089</v>
       </c>
       <c r="G20" t="n">
-        <v>0.206966361470864</v>
+        <v>0.1851153981280625</v>
       </c>
       <c r="H20" t="n">
-        <v>1.806585418655097</v>
+        <v>1.605980660583355</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4436770962905996</v>
+        <v>0.3676689549117577</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8253329792949828</v>
+        <v>0.7804638554744895</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6345046726723163</v>
+        <v>0.5740666317200188</v>
       </c>
       <c r="L20" t="n">
-        <v>1.34817938519934</v>
+        <v>0.8717469392506222</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4549355574923376</v>
+        <v>0.4302503900382457</v>
       </c>
       <c r="N20" t="n">
-        <v>1.029712512367054</v>
+        <v>1.026575543567192</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4743031060212171</v>
+        <v>0.4485670398832634</v>
       </c>
       <c r="P20" t="n">
-        <v>101.1503980077876</v>
+        <v>101.3735517494091</v>
       </c>
       <c r="Q20" t="n">
-        <v>160.8753134263294</v>
+        <v>161.0984671679509</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9690749534770097</v>
+        <v>0.9717679754715357</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7290676272281171</v>
+        <v>0.7590658149024556</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9285067414458422</v>
+        <v>0.8735693207590883</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4748743874401719</v>
+        <v>0.7319408566695356</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8434045978792359</v>
+        <v>0.8672473558008299</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2067959284959819</v>
+        <v>0.1887876780183602</v>
       </c>
       <c r="H21" t="n">
-        <v>1.811726024254447</v>
+        <v>1.611128005147192</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4418509519536932</v>
+        <v>0.3666801172794177</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8307540343393865</v>
+        <v>0.8060799965431484</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6363028172126795</v>
+        <v>0.5863798275518152</v>
       </c>
       <c r="L21" t="n">
-        <v>1.352721368546467</v>
+        <v>0.8768225615542617</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4547482034004994</v>
+        <v>0.4344970402872271</v>
       </c>
       <c r="N21" t="n">
-        <v>1.029688044662071</v>
+        <v>1.027102743547326</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4741077758778129</v>
+        <v>0.4529944788251218</v>
       </c>
       <c r="P21" t="n">
-        <v>101.1520456493311</v>
+        <v>101.3342645842677</v>
       </c>
       <c r="Q21" t="n">
-        <v>160.8769610678729</v>
+        <v>161.0591800028095</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9690867127354938</v>
+        <v>0.9712593257308302</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7283662796473306</v>
+        <v>0.7583585626277657</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9287701782858273</v>
+        <v>0.8738467575632979</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4717692562992962</v>
+        <v>0.724152728254182</v>
       </c>
       <c r="F22" t="n">
-        <v>0.843000532139939</v>
+        <v>0.864687297619038</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2067172942803518</v>
+        <v>0.1921890211765753</v>
       </c>
       <c r="H22" t="n">
-        <v>1.816415938756575</v>
+        <v>1.615857404364641</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4402228289546711</v>
+        <v>0.3658754821978381</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8356663832340834</v>
+        <v>0.8294996585182168</v>
       </c>
       <c r="K22" t="n">
-        <v>0.637944680030947</v>
+        <v>0.5976878243470394</v>
       </c>
       <c r="L22" t="n">
-        <v>1.356723277363333</v>
+        <v>0.8813971435937725</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4546617361075724</v>
+        <v>0.4383936828657266</v>
       </c>
       <c r="N22" t="n">
-        <v>1.029676755773926</v>
+        <v>1.027591047298403</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4740176274932141</v>
+        <v>0.4570570095453502</v>
       </c>
       <c r="P22" t="n">
-        <v>101.1528062945753</v>
+        <v>101.298551811895</v>
       </c>
       <c r="Q22" t="n">
-        <v>160.8777217131171</v>
+        <v>161.0234672304369</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.969088160503114</v>
+        <v>0.970789836881701</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7277273727613026</v>
+        <v>0.7577102926990067</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9290052486455077</v>
+        <v>0.8740723297522341</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4689564510678415</v>
+        <v>0.7170437585842349</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8426316863175884</v>
+        <v>0.8623415935064984</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2067076130516103</v>
+        <v>0.1953284952724995</v>
       </c>
       <c r="H23" t="n">
-        <v>1.82068831204534</v>
+        <v>1.620192388363261</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4387700197765554</v>
+        <v>0.365221267277925</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8401162695811824</v>
+        <v>0.8508770238853509</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6394434317995192</v>
+        <v>0.6080490008139644</v>
       </c>
       <c r="L23" t="n">
-        <v>1.360256299527109</v>
+        <v>0.8855195845421909</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4546510893549143</v>
+        <v>0.441959834456141</v>
       </c>
       <c r="N23" t="n">
-        <v>1.029675365917011</v>
+        <v>1.028041756593567</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4740065274862535</v>
+        <v>0.46077497959192</v>
       </c>
       <c r="P23" t="n">
-        <v>101.1528999631335</v>
+        <v>101.266145093219</v>
       </c>
       <c r="Q23" t="n">
-        <v>160.8778153816753</v>
+        <v>160.9910605117608</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9690821006386986</v>
+        <v>0.9703577666552023</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7271461346144903</v>
+        <v>0.7571172891731661</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9292147560605646</v>
+        <v>0.8742551627669984</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4664118577860717</v>
+        <v>0.7105656479706253</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8422957446406156</v>
+        <v>0.8601965149254012</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2067481353928584</v>
+        <v>0.1982177508665959</v>
       </c>
       <c r="H24" t="n">
-        <v>1.82457505420943</v>
+        <v>1.624157805671087</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4374751976820483</v>
+        <v>0.3646910064923402</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8441418419090646</v>
+        <v>0.870357334521825</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6408084823219611</v>
+        <v>0.617523997082828</v>
       </c>
       <c r="L24" t="n">
-        <v>1.363377702505539</v>
+        <v>0.8892378918055386</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4546956513898702</v>
+        <v>0.445216521331583</v>
       </c>
       <c r="N24" t="n">
-        <v>1.029681183386849</v>
+        <v>1.028456544011006</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4740529866192936</v>
+        <v>0.4641703103699208</v>
       </c>
       <c r="P24" t="n">
-        <v>101.1525079275501</v>
+        <v>101.2367782014403</v>
       </c>
       <c r="Q24" t="n">
-        <v>160.877423346092</v>
+        <v>160.9616936199822</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9690705443340851</v>
+        <v>0.9699612434594769</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7266179606738257</v>
+        <v>0.7565757778354022</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9294018856548953</v>
+        <v>0.8744035427121214</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4641071932267127</v>
+        <v>0.7046712358783185</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8419894573770798</v>
+        <v>0.8582387431481245</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2068254124550211</v>
+        <v>0.2008693033022336</v>
       </c>
       <c r="H25" t="n">
-        <v>1.828106955782671</v>
+        <v>1.627778894480145</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4363186775979743</v>
+        <v>0.3642606680965785</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8477878445695585</v>
+        <v>0.8880824067575928</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6420530364150243</v>
+        <v>0.6261716431170791</v>
       </c>
       <c r="L25" t="n">
-        <v>1.366147013517989</v>
+        <v>0.8925831755786346</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4547806201401079</v>
+        <v>0.4481844523209541</v>
       </c>
       <c r="N25" t="n">
-        <v>1.029692277439278</v>
+        <v>1.028837206278902</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4741415726651385</v>
+        <v>0.4672645923259735</v>
       </c>
       <c r="P25" t="n">
-        <v>101.1517605193712</v>
+        <v>101.210201629486</v>
       </c>
       <c r="Q25" t="n">
-        <v>160.876675937913</v>
+        <v>160.9351170480278</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9690553954591576</v>
+        <v>0.9695981021122205</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7261385304472072</v>
+        <v>0.7560820513952637</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9295691020134369</v>
+        <v>0.8745232576426223</v>
       </c>
       <c r="E26" t="n">
-        <v>0.462026578695557</v>
+        <v>0.699313570865814</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8417115547938987</v>
+        <v>0.8564544066733804</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2069267130514149</v>
+        <v>0.2032976311634494</v>
       </c>
       <c r="H26" t="n">
-        <v>1.831312907915641</v>
+        <v>1.631080445458752</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4352852276098491</v>
+        <v>0.3639134653051378</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8510793978176221</v>
+        <v>0.9041934281579513</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6431822534558438</v>
+        <v>0.6340532105289127</v>
       </c>
       <c r="L26" t="n">
-        <v>1.368603555705927</v>
+        <v>0.895597559388654</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4548919795417533</v>
+        <v>0.4508853858392944</v>
       </c>
       <c r="N26" t="n">
-        <v>1.029706820359209</v>
+        <v>1.029185821972268</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4742576728670576</v>
+        <v>0.4700805101758928</v>
       </c>
       <c r="P26" t="n">
-        <v>101.1507811832695</v>
+        <v>101.1861684206834</v>
       </c>
       <c r="Q26" t="n">
-        <v>160.8756966018113</v>
+        <v>160.9110838392252</v>
       </c>
     </row>
   </sheetData>
